--- a/data/doctor_schedules.xlsx
+++ b/data/doctor_schedules.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="37">
   <si>
     <t>date</t>
   </si>
@@ -34,10 +34,10 @@
     <t>patient_name</t>
   </si>
   <si>
-    <t>2025-09-05</t>
+    <t>2025-09-12</t>
   </si>
   <si>
-    <t>09:00</t>
+    <t>00:00</t>
   </si>
   <si>
     <t>Dr. Smith</t>
@@ -46,55 +46,85 @@
     <t>Main Clinic</t>
   </si>
   <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Shaikh shanawaz</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>12:00</t>
+    <t>01:30</t>
   </si>
   <si>
-    <t>false</t>
+    <t>02:00</t>
   </si>
   <si>
-    <t>14:00</t>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>Shahnawaz Anwar</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>04:30</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>07:30</t>
   </si>
   <si>
     <t>Westside Branch</t>
   </si>
   <si>
-    <t>11:00</t>
+    <t>Dr. Jones</t>
   </si>
   <si>
-    <t>jack</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>Dr. Jones</t>
+    <t>shanawaz</t>
   </si>
   <si>
     <t>Dr. Williams</t>
   </si>
   <si>
-    <t>15:00</t>
+    <t>2025-09-15</t>
   </si>
   <si>
-    <t>2025-09-08</t>
+    <t>2025-09-16</t>
   </si>
   <si>
-    <t>2025-09-09</t>
+    <t>2025-09-17</t>
   </si>
   <si>
-    <t>2025-09-10</t>
-  </si>
-  <si>
-    <t>2025-09-11</t>
+    <t>2025-09-18</t>
   </si>
 </sst>
 </file>
@@ -112,7 +142,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -465,7 +495,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F481"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -479,7 +509,7 @@
     <col min="6" max="6" style="3" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,7 +529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -515,27 +545,31 @@
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -549,111 +583,111 @@
         <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="17.25">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+        <v>10</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="17.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="17.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="F9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="17.25">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>9</v>
@@ -663,15 +697,15 @@
       </c>
       <c r="F10" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="17.25">
       <c r="A11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -681,72 +715,72 @@
       </c>
       <c r="F11" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="17.25">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="17.25">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F13" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="17.25">
       <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F14" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="17.25">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -758,16 +792,16 @@
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -776,16 +810,16 @@
         <v>6</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -794,31 +828,33 @@
         <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="2"/>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="17.25">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -830,16 +866,16 @@
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F20" s="2"/>
     </row>
@@ -848,16 +884,16 @@
         <v>6</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F21" s="2"/>
     </row>
@@ -866,13 +902,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -884,13 +920,13 @@
         <v>6</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -902,16 +938,16 @@
         <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F24" s="2"/>
     </row>
@@ -920,13 +956,13 @@
         <v>6</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>10</v>
@@ -935,16 +971,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="17.25">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -953,16 +989,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="17.25">
       <c r="A27" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -971,16 +1007,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="17.25">
       <c r="A28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C28" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -989,34 +1025,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="17.25">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="17.25">
       <c r="A30" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -1025,34 +1061,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="17.25">
       <c r="A31" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="17.25">
       <c r="A32" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -1061,31 +1097,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="17.25">
       <c r="A33" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="17.25">
       <c r="A34" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>9</v>
@@ -1097,16 +1133,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="17.25">
       <c r="A35" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -1115,16 +1151,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="17.25">
       <c r="A36" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>10</v>
@@ -1133,16 +1169,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="17.25">
       <c r="A37" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -1151,31 +1187,33 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="17.25">
       <c r="A38" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="2"/>
+      <c r="F38" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="17.25">
       <c r="A39" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>9</v>
@@ -1183,35 +1221,37 @@
       <c r="E39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F39" s="2"/>
+      <c r="F39" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="17.25">
       <c r="A40" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F40" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="17.25">
       <c r="A41" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>9</v>
@@ -1223,13 +1263,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="17.25">
       <c r="A42" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -1241,31 +1281,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="17.25">
       <c r="A43" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F43" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="17.25">
       <c r="A44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -1277,34 +1317,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="17.25">
       <c r="A45" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F45" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="17.25">
       <c r="A46" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -1313,16 +1353,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="17.25">
       <c r="A47" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -1331,16 +1371,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="17.25">
       <c r="A48" s="2" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>10</v>
@@ -1349,34 +1389,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="17.25">
       <c r="A49" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F49" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="17.25">
       <c r="A50" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -1385,16 +1425,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="17.25">
       <c r="A51" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -1403,16 +1443,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="17.25">
       <c r="A52" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -1421,70 +1461,76 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="17.25">
       <c r="A53" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F53" s="2"/>
+      <c r="F53" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="17.25">
       <c r="A54" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F54" s="2"/>
+      <c r="F54" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="17.25">
       <c r="A55" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="17.25">
       <c r="A56" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -1493,16 +1539,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="17.25">
       <c r="A57" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -1511,52 +1557,52 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="17.25">
       <c r="A58" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F58" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="17.25">
       <c r="A59" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F59" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="17.25">
       <c r="A60" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -1565,52 +1611,52 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="17.25">
       <c r="A61" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F61" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="17.25">
       <c r="A62" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F62" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="17.25">
       <c r="A63" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -1619,16 +1665,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="17.25">
       <c r="A64" s="2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -1637,124 +1683,124 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="17.25">
       <c r="A65" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F65" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="17.25">
       <c r="A66" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F66" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="17.25">
       <c r="A67" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F67" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="17.25">
       <c r="A68" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F68" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="17.25">
       <c r="A69" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F69" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="17.25">
       <c r="A70" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F70" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="17.25">
       <c r="A71" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -1763,31 +1809,31 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="17.25">
       <c r="A72" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F72" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="17.25">
       <c r="A73" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>9</v>
@@ -1799,49 +1845,49 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="17.25">
       <c r="A74" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="17.25">
       <c r="A75" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F75" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="17.25">
       <c r="A76" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>9</v>
@@ -1853,34 +1899,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="17.25">
       <c r="A77" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F77" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="17.25">
       <c r="A78" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B78" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -1889,16 +1935,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="17.25">
       <c r="A79" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
@@ -1907,52 +1953,52 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="17.25">
       <c r="A80" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F80" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="17.25">
       <c r="A81" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F81" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="17.25">
       <c r="A82" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -1961,52 +2007,52 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="17.25">
       <c r="A83" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F83" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="17.25">
       <c r="A84" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F84" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="17.25">
       <c r="A85" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -2015,16 +2061,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="17.25">
       <c r="A86" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
@@ -2033,16 +2079,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="17.25">
       <c r="A87" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -2051,34 +2097,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="17.25">
       <c r="A88" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F88" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="17.25">
       <c r="A89" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -2087,16 +2133,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="17.25">
       <c r="A90" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>10</v>
@@ -2105,34 +2151,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="17.25">
       <c r="A91" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F91" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="17.25">
       <c r="A92" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>10</v>
@@ -2141,100 +2187,100 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="17.25">
       <c r="A93" s="2" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F93" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="17.25">
       <c r="A94" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F94" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="17.25">
       <c r="A95" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="C95" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F95" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="17.25">
       <c r="A96" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F96" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="17.25">
       <c r="A97" s="2" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F97" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="17.25">
       <c r="A98" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
@@ -2243,58 +2289,58 @@
         <v>9</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F98" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="17.25">
       <c r="A99" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F99" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="17.25">
       <c r="A100" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F100" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="17.25">
       <c r="A101" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>10</v>
@@ -2303,34 +2349,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="17.25">
       <c r="A102" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F102" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="17.25">
       <c r="A103" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>10</v>
@@ -2339,49 +2385,49 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="17.25">
       <c r="A104" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F104" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="17.25">
       <c r="A105" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F105" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="17.25">
       <c r="A106" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>9</v>
@@ -2393,34 +2439,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="17.25">
       <c r="A107" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F107" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="17.25">
       <c r="A108" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>10</v>
@@ -2429,16 +2475,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="17.25">
       <c r="A109" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>10</v>
@@ -2447,34 +2493,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="17.25">
       <c r="A110" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F110" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="17.25">
       <c r="A111" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>10</v>
@@ -2483,13 +2529,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="17.25">
       <c r="A112" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>9</v>
@@ -2501,13 +2547,13 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="17.25">
       <c r="A113" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>9</v>
@@ -2519,16 +2565,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="17.25">
       <c r="A114" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>10</v>
@@ -2537,34 +2583,34 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="17.25">
       <c r="A115" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F115" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="17.25">
       <c r="A116" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>10</v>
@@ -2573,39 +2619,6573 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="17.25">
       <c r="A117" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F117" s="2"/>
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="17.25">
       <c r="A118" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="17.25">
+      <c r="A119" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F119" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="17.25">
+      <c r="A120" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F120" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="17.25">
+      <c r="A121" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="17.25">
+      <c r="A122" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="17.25">
+      <c r="A123" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="17.25">
+      <c r="A124" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F124" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="17.25">
+      <c r="A125" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F125" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="17.25">
+      <c r="A126" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F126" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="17.25">
+      <c r="A127" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="C127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F127" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="17.25">
+      <c r="A128" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="17.25">
+      <c r="A129" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E129" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F129" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="17.25">
+      <c r="A130" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F130" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="17.25">
+      <c r="A131" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F131" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="17.25">
+      <c r="A132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="17.25">
+      <c r="A133" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="17.25">
+      <c r="A134" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F134" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="17.25">
+      <c r="A135" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="17.25">
+      <c r="A136" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="17.25">
+      <c r="A137" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F137" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="17.25">
+      <c r="A138" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D118" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F118" s="2"/>
+      <c r="C138" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="17.25">
+      <c r="A139" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="17.25">
+      <c r="A140" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="17.25">
+      <c r="A141" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="17.25">
+      <c r="A142" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F142" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="17.25">
+      <c r="A143" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="17.25">
+      <c r="A144" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="17.25">
+      <c r="A145" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="17.25">
+      <c r="A146" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="17.25">
+      <c r="A147" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="17.25">
+      <c r="A148" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="17.25">
+      <c r="A149" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="17.25">
+      <c r="A150" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="17.25">
+      <c r="A151" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="17.25">
+      <c r="A152" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="17.25">
+      <c r="A153" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F153" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="17.25">
+      <c r="A154" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F154" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="17.25">
+      <c r="A155" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F155" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="17.25">
+      <c r="A156" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F156" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="17.25">
+      <c r="A157" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="17.25">
+      <c r="A158" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="17.25">
+      <c r="A159" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="17.25">
+      <c r="A160" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="17.25">
+      <c r="A161" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F161" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="17.25">
+      <c r="A162" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="17.25">
+      <c r="A163" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="17.25">
+      <c r="A164" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="17.25">
+      <c r="A165" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F165" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="17.25">
+      <c r="A166" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="17.25">
+      <c r="A167" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="17.25">
+      <c r="A168" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="17.25">
+      <c r="A169" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F169" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="17.25">
+      <c r="A170" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F170" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="17.25">
+      <c r="A171" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F171" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="17.25">
+      <c r="A172" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="17.25">
+      <c r="A173" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F173" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="17.25">
+      <c r="A174" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F174" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="17.25">
+      <c r="A175" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F175" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="17.25">
+      <c r="A176" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="17.25">
+      <c r="A177" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="17.25">
+      <c r="A178" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="17.25">
+      <c r="A179" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="17.25">
+      <c r="A180" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="17.25">
+      <c r="A181" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="17.25">
+      <c r="A182" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="17.25">
+      <c r="A183" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="17.25">
+      <c r="A184" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="17.25">
+      <c r="A185" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F185" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="17.25">
+      <c r="A186" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="17.25">
+      <c r="A187" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="17.25">
+      <c r="A188" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="17.25">
+      <c r="A189" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="17.25">
+      <c r="A190" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F190" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="17.25">
+      <c r="A191" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F191" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="17.25">
+      <c r="A192" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="17.25">
+      <c r="A193" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="17.25">
+      <c r="A194" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="17.25">
+      <c r="A195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="17.25">
+      <c r="A196" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F196" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="17.25">
+      <c r="A197" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="17.25">
+      <c r="A198" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="17.25">
+      <c r="A199" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="17.25">
+      <c r="A200" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="17.25">
+      <c r="A201" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="17.25">
+      <c r="A202" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="17.25">
+      <c r="A203" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="17.25">
+      <c r="A204" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="17.25">
+      <c r="A205" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="17.25">
+      <c r="A206" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="17.25">
+      <c r="A207" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F207" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="17.25">
+      <c r="A208" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="17.25">
+      <c r="A209" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="17.25">
+      <c r="A210" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="17.25">
+      <c r="A211" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="17.25">
+      <c r="A212" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="17.25">
+      <c r="A213" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F213" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="17.25">
+      <c r="A214" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="17.25">
+      <c r="A215" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="17.25">
+      <c r="A216" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="17.25">
+      <c r="A217" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="17.25">
+      <c r="A218" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="17.25">
+      <c r="A219" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F219" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="17.25">
+      <c r="A220" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F220" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="17.25">
+      <c r="A221" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="17.25">
+      <c r="A222" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B222" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F222" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="17.25">
+      <c r="A223" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B223" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="17.25">
+      <c r="A224" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="17.25">
+      <c r="A225" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F225" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="17.25">
+      <c r="A226" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F226" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="17.25">
+      <c r="A227" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B227" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F227" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="17.25">
+      <c r="A228" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B228" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="17.25">
+      <c r="A229" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="17.25">
+      <c r="A230" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B230" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="17.25">
+      <c r="A231" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C231" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F231" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="17.25">
+      <c r="A232" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F232" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="17.25">
+      <c r="A233" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E233" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F233" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="17.25">
+      <c r="A234" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B234" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E234" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="17.25">
+      <c r="A235" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F235" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="17.25">
+      <c r="A236" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C236" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E236" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F236" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="17.25">
+      <c r="A237" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B237" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E237" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="17.25">
+      <c r="A238" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B238" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C238" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="17.25">
+      <c r="A239" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B239" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C239" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F239" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="17.25">
+      <c r="A240" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B240" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C240" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F240" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="17.25">
+      <c r="A241" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B241" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="17.25">
+      <c r="A242" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F242" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="17.25">
+      <c r="A243" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B243" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E243" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="17.25">
+      <c r="A244" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B244" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="17.25">
+      <c r="A245" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B245" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E245" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F245" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="17.25">
+      <c r="A246" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E246" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="17.25">
+      <c r="A247" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B247" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E247" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F247" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="17.25">
+      <c r="A248" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B248" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E248" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="17.25">
+      <c r="A249" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E249" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="17.25">
+      <c r="A250" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E250" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="17.25">
+      <c r="A251" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E251" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="17.25">
+      <c r="A252" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E252" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F252" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="17.25">
+      <c r="A253" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B253" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E253" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F253" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="17.25">
+      <c r="A254" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E254" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="17.25">
+      <c r="A255" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F255" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="17.25">
+      <c r="A256" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="17.25">
+      <c r="A257" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="17.25">
+      <c r="A258" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C258" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="17.25">
+      <c r="A259" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="17.25">
+      <c r="A260" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B260" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="17.25">
+      <c r="A261" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F261" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="17.25">
+      <c r="A262" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="17.25">
+      <c r="A263" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F263" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="17.25">
+      <c r="A264" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="17.25">
+      <c r="A265" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="17.25">
+      <c r="A266" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F266" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="17.25">
+      <c r="A267" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F267" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="17.25">
+      <c r="A268" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F268" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="17.25">
+      <c r="A269" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B269" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F269" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="17.25">
+      <c r="A270" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="17.25">
+      <c r="A271" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F271" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="17.25">
+      <c r="A272" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F272" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="17.25">
+      <c r="A273" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F273" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="17.25">
+      <c r="A274" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E274" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F274" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="17.25">
+      <c r="A275" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B275" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F275" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="17.25">
+      <c r="A276" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C276" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E276" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F276" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="17.25">
+      <c r="A277" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C277" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E277" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F277" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="17.25">
+      <c r="A278" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C278" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E278" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F278" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="17.25">
+      <c r="A279" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B279" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E279" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F279" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="17.25">
+      <c r="A280" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F280" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="17.25">
+      <c r="A281" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B281" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E281" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F281" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="282" customHeight="1" ht="17.25">
+      <c r="A282" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B282" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E282" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F282" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="283" customHeight="1" ht="17.25">
+      <c r="A283" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B283" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C283" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E283" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F283" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="284" customHeight="1" ht="17.25">
+      <c r="A284" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B284" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E284" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F284" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="285" customHeight="1" ht="17.25">
+      <c r="A285" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B285" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E285" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F285" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="286" customHeight="1" ht="17.25">
+      <c r="A286" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F286" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="287" customHeight="1" ht="17.25">
+      <c r="A287" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F287" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="288" customHeight="1" ht="17.25">
+      <c r="A288" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B288" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E288" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="289" customHeight="1" ht="17.25">
+      <c r="A289" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B289" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E289" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F289" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="290" customHeight="1" ht="17.25">
+      <c r="A290" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F290" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="291" customHeight="1" ht="17.25">
+      <c r="A291" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F291" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="292" customHeight="1" ht="17.25">
+      <c r="A292" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F292" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="293" customHeight="1" ht="17.25">
+      <c r="A293" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B293" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F293" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="294" customHeight="1" ht="17.25">
+      <c r="A294" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B294" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F294" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="295" customHeight="1" ht="17.25">
+      <c r="A295" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B295" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F295" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="296" customHeight="1" ht="17.25">
+      <c r="A296" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B296" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F296" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="297" customHeight="1" ht="17.25">
+      <c r="A297" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E297" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F297" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="298" customHeight="1" ht="17.25">
+      <c r="A298" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B298" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E298" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F298" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="299" customHeight="1" ht="17.25">
+      <c r="A299" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E299" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F299" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="300" customHeight="1" ht="17.25">
+      <c r="A300" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E300" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F300" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="301" customHeight="1" ht="17.25">
+      <c r="A301" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E301" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F301" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="302" customHeight="1" ht="17.25">
+      <c r="A302" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B302" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E302" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F302" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="303" customHeight="1" ht="17.25">
+      <c r="A303" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F303" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="304" customHeight="1" ht="17.25">
+      <c r="A304" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E304" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F304" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="305" customHeight="1" ht="17.25">
+      <c r="A305" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F305" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="306" customHeight="1" ht="17.25">
+      <c r="A306" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E306" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F306" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="307" customHeight="1" ht="17.25">
+      <c r="A307" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B307" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E307" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F307" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="308" customHeight="1" ht="17.25">
+      <c r="A308" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B308" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E308" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F308" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="309" customHeight="1" ht="17.25">
+      <c r="A309" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B309" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E309" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F309" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="310" customHeight="1" ht="17.25">
+      <c r="A310" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B310" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E310" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F310" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="311" customHeight="1" ht="17.25">
+      <c r="A311" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B311" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E311" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F311" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="312" customHeight="1" ht="17.25">
+      <c r="A312" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E312" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F312" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="313" customHeight="1" ht="17.25">
+      <c r="A313" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B313" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E313" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F313" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="314" customHeight="1" ht="17.25">
+      <c r="A314" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B314" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E314" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F314" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="315" customHeight="1" ht="17.25">
+      <c r="A315" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B315" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E315" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F315" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="316" customHeight="1" ht="17.25">
+      <c r="A316" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E316" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F316" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="317" customHeight="1" ht="17.25">
+      <c r="A317" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B317" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E317" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F317" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="318" customHeight="1" ht="17.25">
+      <c r="A318" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B318" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F318" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="319" customHeight="1" ht="17.25">
+      <c r="A319" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B319" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E319" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F319" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="320" customHeight="1" ht="17.25">
+      <c r="A320" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E320" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F320" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="321" customHeight="1" ht="17.25">
+      <c r="A321" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E321" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F321" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="322" customHeight="1" ht="17.25">
+      <c r="A322" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F322" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="323" customHeight="1" ht="17.25">
+      <c r="A323" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F323" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="324" customHeight="1" ht="17.25">
+      <c r="A324" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B324" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C324" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F324" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="325" customHeight="1" ht="17.25">
+      <c r="A325" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F325" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="326" customHeight="1" ht="17.25">
+      <c r="A326" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B326" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C326" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F326" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="327" customHeight="1" ht="17.25">
+      <c r="A327" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B327" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F327" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="328" customHeight="1" ht="17.25">
+      <c r="A328" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C328" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F328" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="329" customHeight="1" ht="17.25">
+      <c r="A329" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F329" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="330" customHeight="1" ht="17.25">
+      <c r="A330" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F330" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="331" customHeight="1" ht="17.25">
+      <c r="A331" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F331" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="332" customHeight="1" ht="17.25">
+      <c r="A332" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F332" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="333" customHeight="1" ht="17.25">
+      <c r="A333" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F333" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="334" customHeight="1" ht="17.25">
+      <c r="A334" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F334" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="335" customHeight="1" ht="17.25">
+      <c r="A335" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F335" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="336" customHeight="1" ht="17.25">
+      <c r="A336" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F336" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="337" customHeight="1" ht="17.25">
+      <c r="A337" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F337" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="338" customHeight="1" ht="17.25">
+      <c r="A338" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F338" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="339" customHeight="1" ht="17.25">
+      <c r="A339" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F339" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="340" customHeight="1" ht="17.25">
+      <c r="A340" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F340" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="341" customHeight="1" ht="17.25">
+      <c r="A341" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F341" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="342" customHeight="1" ht="17.25">
+      <c r="A342" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F342" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="343" customHeight="1" ht="17.25">
+      <c r="A343" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F343" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="344" customHeight="1" ht="17.25">
+      <c r="A344" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F344" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="345" customHeight="1" ht="17.25">
+      <c r="A345" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F345" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="346" customHeight="1" ht="17.25">
+      <c r="A346" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F346" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="347" customHeight="1" ht="17.25">
+      <c r="A347" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F347" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="348" customHeight="1" ht="17.25">
+      <c r="A348" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F348" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="349" customHeight="1" ht="17.25">
+      <c r="A349" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F349" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="350" customHeight="1" ht="17.25">
+      <c r="A350" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E350" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F350" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="351" customHeight="1" ht="17.25">
+      <c r="A351" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F351" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="352" customHeight="1" ht="17.25">
+      <c r="A352" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E352" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F352" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="353" customHeight="1" ht="17.25">
+      <c r="A353" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B353" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F353" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="354" customHeight="1" ht="17.25">
+      <c r="A354" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F354" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="355" customHeight="1" ht="17.25">
+      <c r="A355" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B355" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F355" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="356" customHeight="1" ht="17.25">
+      <c r="A356" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F356" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="357" customHeight="1" ht="17.25">
+      <c r="A357" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F357" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="358" customHeight="1" ht="17.25">
+      <c r="A358" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B358" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F358" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="359" customHeight="1" ht="17.25">
+      <c r="A359" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F359" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="360" customHeight="1" ht="17.25">
+      <c r="A360" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F360" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="361" customHeight="1" ht="17.25">
+      <c r="A361" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F361" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="362" customHeight="1" ht="17.25">
+      <c r="A362" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F362" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="363" customHeight="1" ht="17.25">
+      <c r="A363" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F363" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="364" customHeight="1" ht="17.25">
+      <c r="A364" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F364" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="365" customHeight="1" ht="17.25">
+      <c r="A365" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F365" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="366" customHeight="1" ht="17.25">
+      <c r="A366" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B366" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C366" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F366" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="367" customHeight="1" ht="17.25">
+      <c r="A367" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F367" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="368" customHeight="1" ht="17.25">
+      <c r="A368" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F368" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="369" customHeight="1" ht="17.25">
+      <c r="A369" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F369" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="370" customHeight="1" ht="17.25">
+      <c r="A370" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B370" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F370" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="371" customHeight="1" ht="17.25">
+      <c r="A371" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B371" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F371" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="372" customHeight="1" ht="17.25">
+      <c r="A372" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B372" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C372" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E372" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F372" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="373" customHeight="1" ht="17.25">
+      <c r="A373" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E373" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F373" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="374" customHeight="1" ht="17.25">
+      <c r="A374" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B374" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C374" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D374" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E374" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F374" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="375" customHeight="1" ht="17.25">
+      <c r="A375" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B375" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D375" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E375" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F375" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="376" customHeight="1" ht="17.25">
+      <c r="A376" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B376" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E376" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F376" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="377" customHeight="1" ht="17.25">
+      <c r="A377" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B377" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C377" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F377" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="378" customHeight="1" ht="17.25">
+      <c r="A378" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B378" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C378" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E378" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F378" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="379" customHeight="1" ht="17.25">
+      <c r="A379" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C379" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E379" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F379" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="380" customHeight="1" ht="17.25">
+      <c r="A380" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B380" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C380" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F380" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="381" customHeight="1" ht="17.25">
+      <c r="A381" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B381" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C381" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D381" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E381" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F381" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="382" customHeight="1" ht="17.25">
+      <c r="A382" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C382" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D382" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E382" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F382" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="383" customHeight="1" ht="17.25">
+      <c r="A383" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B383" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C383" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D383" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E383" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F383" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="384" customHeight="1" ht="17.25">
+      <c r="A384" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B384" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C384" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D384" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E384" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F384" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="385" customHeight="1" ht="17.25">
+      <c r="A385" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F385" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="386" customHeight="1" ht="17.25">
+      <c r="A386" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B386" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C386" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E386" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F386" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="387" customHeight="1" ht="17.25">
+      <c r="A387" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E387" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F387" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="388" customHeight="1" ht="17.25">
+      <c r="A388" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E388" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F388" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="389" customHeight="1" ht="17.25">
+      <c r="A389" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B389" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C389" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F389" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="390" customHeight="1" ht="17.25">
+      <c r="A390" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F390" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="391" customHeight="1" ht="17.25">
+      <c r="A391" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F391" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="392" customHeight="1" ht="17.25">
+      <c r="A392" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F392" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="393" customHeight="1" ht="17.25">
+      <c r="A393" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F393" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="394" customHeight="1" ht="17.25">
+      <c r="A394" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C394" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D394" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F394" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="395" customHeight="1" ht="17.25">
+      <c r="A395" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F395" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="396" customHeight="1" ht="17.25">
+      <c r="A396" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C396" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D396" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E396" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F396" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="397" customHeight="1" ht="17.25">
+      <c r="A397" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E397" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F397" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="398" customHeight="1" ht="17.25">
+      <c r="A398" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E398" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F398" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="399" customHeight="1" ht="17.25">
+      <c r="A399" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F399" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="400" customHeight="1" ht="17.25">
+      <c r="A400" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B400" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E400" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F400" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="401" customHeight="1" ht="17.25">
+      <c r="A401" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B401" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C401" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D401" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E401" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F401" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="402" customHeight="1" ht="17.25">
+      <c r="A402" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B402" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C402" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E402" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F402" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="403" customHeight="1" ht="17.25">
+      <c r="A403" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B403" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C403" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D403" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E403" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F403" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="404" customHeight="1" ht="17.25">
+      <c r="A404" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B404" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C404" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D404" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E404" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F404" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="405" customHeight="1" ht="17.25">
+      <c r="A405" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B405" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C405" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D405" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E405" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F405" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="406" customHeight="1" ht="17.25">
+      <c r="A406" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C406" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E406" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F406" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="407" customHeight="1" ht="17.25">
+      <c r="A407" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B407" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C407" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E407" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F407" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="408" customHeight="1" ht="17.25">
+      <c r="A408" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B408" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C408" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D408" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E408" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F408" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="409" customHeight="1" ht="17.25">
+      <c r="A409" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B409" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C409" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D409" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F409" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="410" customHeight="1" ht="17.25">
+      <c r="A410" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B410" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C410" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D410" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E410" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F410" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="411" customHeight="1" ht="17.25">
+      <c r="A411" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F411" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="412" customHeight="1" ht="17.25">
+      <c r="A412" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F412" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="413" customHeight="1" ht="17.25">
+      <c r="A413" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F413" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="414" customHeight="1" ht="17.25">
+      <c r="A414" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F414" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="415" customHeight="1" ht="17.25">
+      <c r="A415" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F415" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="416" customHeight="1" ht="17.25">
+      <c r="A416" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F416" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="417" customHeight="1" ht="17.25">
+      <c r="A417" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F417" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="418" customHeight="1" ht="17.25">
+      <c r="A418" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F418" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="419" customHeight="1" ht="17.25">
+      <c r="A419" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F419" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="420" customHeight="1" ht="17.25">
+      <c r="A420" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F420" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="421" customHeight="1" ht="17.25">
+      <c r="A421" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F421" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="422" customHeight="1" ht="17.25">
+      <c r="A422" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F422" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="423" customHeight="1" ht="17.25">
+      <c r="A423" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F423" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="424" customHeight="1" ht="17.25">
+      <c r="A424" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F424" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="425" customHeight="1" ht="17.25">
+      <c r="A425" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F425" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="426" customHeight="1" ht="17.25">
+      <c r="A426" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F426" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="427" customHeight="1" ht="17.25">
+      <c r="A427" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F427" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="428" customHeight="1" ht="17.25">
+      <c r="A428" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F428" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="429" customHeight="1" ht="17.25">
+      <c r="A429" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F429" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="430" customHeight="1" ht="17.25">
+      <c r="A430" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F430" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="431" customHeight="1" ht="17.25">
+      <c r="A431" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F431" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="432" customHeight="1" ht="17.25">
+      <c r="A432" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F432" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="433" customHeight="1" ht="17.25">
+      <c r="A433" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F433" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="434" customHeight="1" ht="17.25">
+      <c r="A434" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B434" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E434" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F434" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="435" customHeight="1" ht="17.25">
+      <c r="A435" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B435" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C435" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D435" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E435" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F435" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="436" customHeight="1" ht="17.25">
+      <c r="A436" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B436" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C436" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D436" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E436" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F436" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="437" customHeight="1" ht="17.25">
+      <c r="A437" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B437" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C437" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D437" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E437" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F437" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="438" customHeight="1" ht="17.25">
+      <c r="A438" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B438" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C438" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D438" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E438" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F438" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="439" customHeight="1" ht="17.25">
+      <c r="A439" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B439" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C439" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D439" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E439" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F439" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="440" customHeight="1" ht="17.25">
+      <c r="A440" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B440" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C440" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E440" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F440" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="441" customHeight="1" ht="17.25">
+      <c r="A441" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B441" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C441" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E441" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F441" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="442" customHeight="1" ht="17.25">
+      <c r="A442" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B442" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C442" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E442" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F442" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="443" customHeight="1" ht="17.25">
+      <c r="A443" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B443" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C443" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E443" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F443" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="444" customHeight="1" ht="17.25">
+      <c r="A444" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B444" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C444" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E444" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F444" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="445" customHeight="1" ht="17.25">
+      <c r="A445" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B445" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C445" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E445" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F445" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="446" customHeight="1" ht="17.25">
+      <c r="A446" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B446" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C446" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E446" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F446" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="447" customHeight="1" ht="17.25">
+      <c r="A447" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B447" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C447" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E447" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F447" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="448" customHeight="1" ht="17.25">
+      <c r="A448" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B448" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C448" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D448" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E448" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F448" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="449" customHeight="1" ht="17.25">
+      <c r="A449" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B449" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C449" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D449" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E449" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F449" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="450" customHeight="1" ht="17.25">
+      <c r="A450" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B450" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C450" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D450" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E450" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F450" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="451" customHeight="1" ht="17.25">
+      <c r="A451" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B451" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C451" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D451" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E451" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F451" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="452" customHeight="1" ht="17.25">
+      <c r="A452" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B452" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C452" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D452" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E452" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F452" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="453" customHeight="1" ht="17.25">
+      <c r="A453" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B453" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C453" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D453" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E453" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F453" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="454" customHeight="1" ht="17.25">
+      <c r="A454" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B454" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C454" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D454" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E454" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F454" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="455" customHeight="1" ht="17.25">
+      <c r="A455" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B455" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C455" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D455" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E455" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F455" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="456" customHeight="1" ht="17.25">
+      <c r="A456" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B456" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C456" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D456" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E456" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F456" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="457" customHeight="1" ht="17.25">
+      <c r="A457" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B457" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C457" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D457" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E457" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F457" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="458" customHeight="1" ht="17.25">
+      <c r="A458" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B458" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C458" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D458" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E458" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F458" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="459" customHeight="1" ht="17.25">
+      <c r="A459" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C459" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D459" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E459" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F459" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="460" customHeight="1" ht="17.25">
+      <c r="A460" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B460" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C460" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D460" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E460" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F460" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="461" customHeight="1" ht="17.25">
+      <c r="A461" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B461" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C461" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D461" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E461" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F461" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="462" customHeight="1" ht="17.25">
+      <c r="A462" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B462" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C462" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D462" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E462" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F462" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="463" customHeight="1" ht="17.25">
+      <c r="A463" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B463" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C463" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D463" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E463" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F463" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="464" customHeight="1" ht="17.25">
+      <c r="A464" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B464" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C464" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D464" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E464" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F464" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="465" customHeight="1" ht="17.25">
+      <c r="A465" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B465" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C465" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D465" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E465" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F465" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="466" customHeight="1" ht="17.25">
+      <c r="A466" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B466" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C466" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D466" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E466" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F466" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="467" customHeight="1" ht="17.25">
+      <c r="A467" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B467" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C467" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D467" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E467" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F467" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="468" customHeight="1" ht="17.25">
+      <c r="A468" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B468" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C468" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D468" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E468" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F468" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="469" customHeight="1" ht="17.25">
+      <c r="A469" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B469" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C469" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D469" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E469" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F469" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="470" customHeight="1" ht="17.25">
+      <c r="A470" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B470" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C470" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D470" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E470" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F470" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="471" customHeight="1" ht="17.25">
+      <c r="A471" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B471" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C471" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D471" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E471" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F471" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="472" customHeight="1" ht="17.25">
+      <c r="A472" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B472" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C472" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D472" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E472" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F472" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="473" customHeight="1" ht="17.25">
+      <c r="A473" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B473" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C473" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D473" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E473" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F473" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="474" customHeight="1" ht="17.25">
+      <c r="A474" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B474" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C474" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D474" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E474" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F474" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="475" customHeight="1" ht="17.25">
+      <c r="A475" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B475" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C475" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D475" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E475" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F475" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="476" customHeight="1" ht="17.25">
+      <c r="A476" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B476" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C476" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D476" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E476" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F476" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="477" customHeight="1" ht="17.25">
+      <c r="A477" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B477" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C477" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D477" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E477" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F477" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="478" customHeight="1" ht="17.25">
+      <c r="A478" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B478" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C478" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D478" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E478" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F478" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="479" customHeight="1" ht="17.25">
+      <c r="A479" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F479" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="480" customHeight="1" ht="17.25">
+      <c r="A480" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B480" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C480" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F480" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="481" customHeight="1" ht="17.25">
+      <c r="A481" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F481" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
